--- a/ApolloQA/Data/RatingManual/GA/VA00070.FleetSizeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00070.FleetSizeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00070.FleetSizeFactors" sheetId="1" r:id="R624c6778cabd4aea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00070.FleetSizeFactors" sheetId="1" r:id="Rfd224f9e44f84408"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,13 +12,13 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Fleet Size Lower Bound</x:v>
+        <x:v>Business Experience Lower Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Fleet Size Upper Bound</x:v>
+        <x:v>Business Experience Upper Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Fleet Size Factor</x:v>
+        <x:v>Business Experience Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -51,7 +51,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9013</x:v>
+        <x:v>0.9500</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -62,7 +62,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8384</x:v>
+        <x:v>0.9500</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -73,7 +73,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8000</x:v>
+        <x:v>0.9500</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -84,7 +84,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8000</x:v>
+        <x:v>0.9500</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -95,7 +95,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8000</x:v>
+        <x:v>0.9500</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -106,7 +106,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8000</x:v>
+        <x:v>0.9500</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -117,7 +117,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8000</x:v>
+        <x:v>0.9500</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -128,7 +128,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8000</x:v>
+        <x:v>0.9500</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -136,54 +136,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c t="str">
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8000</x:v>
+        <x:v>0.9500</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
